--- a/jpcore-r4/feature/swg5-add_inj_comment_terminologies/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg5-add_inj_comment_terminologies/StructureDefinition-jp-procedure.xlsx
@@ -652,7 +652,7 @@
     <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
